--- a/resources/test_data/hnmftest.xlsx
+++ b/resources/test_data/hnmftest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\zxvis\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683F5FEA-380A-402A-9C1A-157B965B1EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74ED024-5505-44EF-A894-E6F23E407583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23343" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23343" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>topic2</t>
   </si>
@@ -104,15 +104,6 @@
   </si>
   <si>
     <t>topic2_bottom</t>
-  </si>
-  <si>
-    <t>topic3_bottom</t>
-  </si>
-  <si>
-    <t>topic4_bottom</t>
-  </si>
-  <si>
-    <t>topic5_bottom</t>
   </si>
 </sst>
 </file>
@@ -441,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -533,84 +524,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.53</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -620,10 +533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E28C73-58D7-486B-B2B2-629E84EF1298}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -731,53 +644,27 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="C5">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="E5">
-        <v>0.65</v>
+        <v>0.08</v>
       </c>
       <c r="F5">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0.18</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.18</v>
-      </c>
-      <c r="E6">
-        <v>0.08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.18</v>
-      </c>
-      <c r="H6">
         <v>0.38</v>
       </c>
     </row>
@@ -790,10 +677,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6ACE90-E28A-490E-8955-D5F4F3C77889}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -823,131 +710,79 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="D3">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.46</v>
       </c>
       <c r="F3">
-        <v>0.43</v>
+        <v>0.08</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E4">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F4">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.78</v>
+        <v>0.32</v>
       </c>
       <c r="H4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0.13</v>
-      </c>
-      <c r="C5">
-        <v>0.03</v>
-      </c>
-      <c r="D5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.46</v>
-      </c>
-      <c r="F5">
-        <v>0.08</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.41</v>
-      </c>
-      <c r="D6">
-        <v>0.18</v>
-      </c>
-      <c r="E6">
-        <v>0.09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.32</v>
-      </c>
-      <c r="H6">
         <v>0</v>
       </c>
     </row>
@@ -961,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F16C876-8B71-493B-AA95-865B09B859D6}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>

--- a/resources/test_data/hnmftest.xlsx
+++ b/resources/test_data/hnmftest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\zxvis\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74ED024-5505-44EF-A894-E6F23E407583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E938B7-E6C2-4092-A399-EA56E3C2590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23343" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1501" yWindow="1501" windowWidth="23233" windowHeight="12318" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -575,19 +575,19 @@
         <v>0.2</v>
       </c>
       <c r="D2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
         <v>0.1</v>
       </c>
       <c r="F2">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="G2">
         <v>0.17</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F3">
         <v>0.2</v>
       </c>
       <c r="G3">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
         <v>0.22</v>
@@ -650,13 +650,13 @@
         <v>0.18</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
         <v>0.18</v>
       </c>
       <c r="E5">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="F5">
         <v>0</v>
